--- a/song_alter_test_backup.xlsx
+++ b/song_alter_test_backup.xlsx
@@ -5737,7 +5737,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="topLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5757,7 +5757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row ht="16.5" customHeight="1" r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
